--- a/target/classes/resources/DemoEcommerceAutomation.xlsx
+++ b/target/classes/resources/DemoEcommerceAutomation.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\developer\Desktop\stud\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\developer\eclipse-workspace\DemoEcommerceAutomation\src\main\java\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C9324F0-D5B1-4E86-A4A8-C3E77357C429}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1D9378C-AFB9-44DD-A4CF-85569DFE4F3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{43996707-DA37-4B78-BAFD-4E1A43A92AC7}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Test_case_ID</t>
   </si>
@@ -56,20 +56,50 @@
     <t>TC_03</t>
   </si>
   <si>
-    <t xml:space="preserve">Test </t>
-  </si>
-  <si>
-    <t>Test</t>
+    <t>new arrival</t>
+  </si>
+  <si>
+    <t>Provide Expected Product Title</t>
+  </si>
+  <si>
+    <t>Provide Expected Home Screen Arrival Count</t>
+  </si>
+  <si>
+    <t>Provide Expected Home Screen Slider Count</t>
+  </si>
+  <si>
+    <t>Provide Expected  Home Screen Heading Text</t>
+  </si>
+  <si>
+    <t>Provide Expected Product Description</t>
+  </si>
+  <si>
+    <t>Provide Expected Product Review</t>
+  </si>
+  <si>
+    <t>TC_04</t>
+  </si>
+  <si>
+    <t>TC_05</t>
+  </si>
+  <si>
+    <t>TC_06</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -95,7 +125,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -106,7 +136,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -421,15 +450,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09BB6F81-61F4-4176-B704-F7359602D681}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A4" sqref="A4:A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" style="4" customWidth="1"/>
+    <col min="1" max="1" width="20.85546875" customWidth="1"/>
     <col min="2" max="2" width="71.140625" customWidth="1"/>
     <col min="3" max="3" width="45.85546875" customWidth="1"/>
   </cols>
@@ -449,27 +478,64 @@
       <c r="F1" s="3"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>5</v>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/target/classes/resources/DemoEcommerceAutomation.xlsx
+++ b/target/classes/resources/DemoEcommerceAutomation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\developer\eclipse-workspace\DemoEcommerceAutomation\src\main\java\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1D9378C-AFB9-44DD-A4CF-85569DFE4F3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EEF3987-A777-4721-90CB-0B17AEE33BAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{43996707-DA37-4B78-BAFD-4E1A43A92AC7}"/>
   </bookViews>
@@ -56,9 +56,6 @@
     <t>TC_03</t>
   </si>
   <si>
-    <t>new arrival</t>
-  </si>
-  <si>
     <t>Provide Expected Product Title</t>
   </si>
   <si>
@@ -84,6 +81,9 @@
   </si>
   <si>
     <t>TC_06</t>
+  </si>
+  <si>
+    <t>new arrivals</t>
   </si>
 </sst>
 </file>
@@ -453,7 +453,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A7"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -482,10 +482,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -493,7 +493,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3">
         <v>3</v>
@@ -504,7 +504,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -512,26 +512,26 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
